--- a/biology/Médecine/Journée_mondiale_contre_l'ostéoporose/Journée_mondiale_contre_l'ostéoporose.xlsx
+++ b/biology/Médecine/Journée_mondiale_contre_l'ostéoporose/Journée_mondiale_contre_l'ostéoporose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_contre_l%27ost%C3%A9oporose</t>
+          <t>Journée_mondiale_contre_l'ostéoporose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La campagne annuelle de la Journée mondiale contre l'ostéoporose (World Osteoporosis Day) est une journée internationale célébrée le 20 octobre de chaque année. Elle est consacrée à la sensibilisation de la population mondiale à l'ostéoporose et aux maladies squelettiques métaboliques[1], à la prévention, au diagnostic et au traitement de l'ostéoporose. Organisée par la Fondation internationale de l'ostéoporose (IOF), la Journée mondiale contre l'ostéoporose comporte des campagnes menées par les sociétés nationales de patients actives dans plus de 90 pays[2].
+La campagne annuelle de la Journée mondiale contre l'ostéoporose (World Osteoporosis Day) est une journée internationale célébrée le 20 octobre de chaque année. Elle est consacrée à la sensibilisation de la population mondiale à l'ostéoporose et aux maladies squelettiques métaboliques, à la prévention, au diagnostic et au traitement de l'ostéoporose. Organisée par la Fondation internationale de l'ostéoporose (IOF), la Journée mondiale contre l'ostéoporose comporte des campagnes menées par les sociétés nationales de patients actives dans plus de 90 pays.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_contre_l%27ost%C3%A9oporose</t>
+          <t>Journée_mondiale_contre_l'ostéoporose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Journée mondiale contre l'ostéoporose a été établie le 20 octobre 1996 par la Société nationale d'ostéoporose du Royaume-Uni, avec le soutien de la Commission européenne. Depuis 1997, cette journée est organisée par la Fondation internationale de l’ostéoporose. En 1998 et 1999, l'Organisation mondiale de la santé a soutenu la Journée mondiale de l'ostéoporose en tant que co-commanditaire. Cette journée marque également le début de la campagne annuelle de sensibilisation à l'ostéoporose et aux maladies métaboliques osseuses. Depuis 1999, chaque campagne annuelle est dédiée à un thème spécifique.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_contre_l%27ost%C3%A9oporose</t>
+          <t>Journée_mondiale_contre_l'ostéoporose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Thèmes de la Journée mondiale contre l’ostéoporose[3]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1996 : Sensibilisation
 1997 : Sensibilisation
